--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VickyViper\Documents\assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VickyViper\Documents\assignment\Sparkfund_investment_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>C1</t>
   </si>
@@ -367,12 +367,54 @@
   <si>
     <t>venture</t>
   </si>
+  <si>
+    <t>USA( America)</t>
+  </si>
+  <si>
+    <t>GBR(Great Britan)</t>
+  </si>
+  <si>
+    <t>IND( India)</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Social, Finance, Analytics, Advertising</t>
+  </si>
+  <si>
+    <t>Cleantech / Semiconductors</t>
+  </si>
+  <si>
+    <t>virtustream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shotspotter  </t>
+  </si>
+  <si>
+    <t>electric-cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">celltick-technologies  </t>
+  </si>
+  <si>
+    <t>News, Search and Messaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstcry-com  </t>
+  </si>
+  <si>
+    <t>manthan-systems</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,8 +488,22 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,8 +534,92 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -503,32 +643,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -541,53 +655,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,31 +677,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -637,62 +692,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1008,7 +1125,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1019,32 +1136,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="9.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1052,10 +1169,10 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="57">
         <v>66370</v>
       </c>
     </row>
@@ -1063,10 +1180,10 @@
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="57">
         <v>66368</v>
       </c>
     </row>
@@ -1074,10 +1191,10 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1085,10 +1202,10 @@
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1096,18 +1213,18 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="11">
         <v>114949</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="11"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="B11" s="11"/>
+      <c r="B11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1134,7 +1251,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1145,85 +1262,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="22">
         <v>11748949</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="22">
         <v>958694</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12">
+      <c r="A7" s="21">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="22">
         <v>719817</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12">
+      <c r="A8" s="21">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="22">
         <v>73308593</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="59.25" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="21">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="28" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1233,7 +1352,7 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A9">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1242,8 +1361,49 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D13FBF24-711A-4403-9915-6A48C086CF51}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D13FBF24-711A-4403-9915-6A48C086CF51}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:C8</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1252,7 +1412,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1263,59 +1423,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25">
-      <c r="A5" s="6">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="32" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
-      <c r="A6" s="6">
+      <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="34" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
-      <c r="A7" s="6">
+      <c r="A7" s="30">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="36" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1341,163 +1509,229 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="56.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19">
+      <c r="A5" s="39">
         <v>1</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="41">
+        <v>12064</v>
+      </c>
+      <c r="D5" s="41">
+        <v>621</v>
+      </c>
+      <c r="E5" s="41">
+        <v>328</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19">
+      <c r="A6" s="39">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="43">
+        <v>107766584223</v>
+      </c>
+      <c r="D6" s="44">
+        <v>5379078691</v>
+      </c>
+      <c r="E6" s="44">
+        <v>2949543602</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19">
+      <c r="A7" s="39">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19">
+      <c r="A8" s="39">
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="19">
+      <c r="A9" s="39">
         <v>5</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="C9" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="19">
+      <c r="A10" s="39">
         <v>6</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="41">
+        <v>2950</v>
+      </c>
+      <c r="D10" s="41">
+        <v>147</v>
+      </c>
+      <c r="E10" s="41">
+        <v>110</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="19">
+      <c r="A11" s="39">
         <v>7</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="18">
+        <v>2714</v>
+      </c>
+      <c r="D11" s="41">
+        <v>133</v>
+      </c>
+      <c r="E11" s="41">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19">
+      <c r="A12" s="39">
         <v>8</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="18">
+        <v>2300</v>
+      </c>
+      <c r="D12" s="41">
+        <v>128</v>
+      </c>
+      <c r="E12" s="41">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="19">
+      <c r="A13" s="39">
         <v>9</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A14" s="19">
+      <c r="C13" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="39">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1505,7 +1739,7 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1513,7 +1747,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1524,8 +1758,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E14">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="A5:E5 A7:E8 A6:B6 D6:E6 A10:E10 A9:B9 D9:E9 A14:E14 A11:B12 D11:E12 A13:C13 E13">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1537,7 +1771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1546,7 +1780,118 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C10:E12">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D7490EA8-9B70-4C3A-85FA-A5D165A8B6DB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:E5">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9BDDF139-A968-44C6-9DE1-8A970538B356}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:E6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A357B827-2515-4384-B29B-749E84711380}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D7490EA8-9B70-4C3A-85FA-A5D165A8B6DB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C10:E12</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9BDDF139-A968-44C6-9DE1-8A970538B356}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C5:E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A357B827-2515-4384-B29B-749E84711380}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:E6</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>